--- a/CS275 - Group 5 - Project Tracker.xlsx
+++ b/CS275 - Group 5 - Project Tracker.xlsx
@@ -18,7 +18,7 @@
     <sheet state="visible" name="Vineel Tasks" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Backlog!$B$7:$R$14</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Backlog!$B$7:$R$26</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Tracker!$B$7:$S$7</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Impediment!$B$7:$L$7</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Retrospective!$B$7:$H$7</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="163">
   <si>
     <t>See</t>
   </si>
@@ -252,6 +252,9 @@
     <t>Data has been written to and retrieved from database</t>
   </si>
   <si>
+    <t>complete</t>
+  </si>
+  <si>
     <t>Use a system for configuration management</t>
   </si>
   <si>
@@ -259,6 +262,132 @@
   </si>
   <si>
     <t>CM system has been determined, developer has tried pulling commiting and pushing.</t>
+  </si>
+  <si>
+    <t>Take user input from the GUI to later be stored in database</t>
+  </si>
+  <si>
+    <t>We can properly charge them</t>
+  </si>
+  <si>
+    <t>Info can be taken in from the GUI and stored for later</t>
+  </si>
+  <si>
+    <t>Write methods which can access data from the database.</t>
+  </si>
+  <si>
+    <t>Others can manipulate the database.</t>
+  </si>
+  <si>
+    <t>Methods can print out or change database data.</t>
+  </si>
+  <si>
+    <t>Track how long a client is using my garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know the proper amount to charge them </t>
+  </si>
+  <si>
+    <t>Be able to store check in time, compare to check out time</t>
+  </si>
+  <si>
+    <t>Have membership pricing</t>
+  </si>
+  <si>
+    <t>be able to have members</t>
+  </si>
+  <si>
+    <t>PriceBracket takes ito account all types of memberships PREREQUISITE: User Story 12</t>
+  </si>
+  <si>
+    <t>Dylan/Jonas</t>
+  </si>
+  <si>
+    <t>Have a list of all different types of members</t>
+  </si>
+  <si>
+    <t>be able to create membership pricing</t>
+  </si>
+  <si>
+    <t>all different types of memberships are listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developer </t>
+  </si>
+  <si>
+    <t>ensure the database cannot be altered by irrelevant methods</t>
+  </si>
+  <si>
+    <t>member data stays constant</t>
+  </si>
+  <si>
+    <t>database class is fully private</t>
+  </si>
+  <si>
+    <t>nikolai</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Establish a connection to the database</t>
+  </si>
+  <si>
+    <t>Code can alter database values</t>
+  </si>
+  <si>
+    <t>the database can be altered and printed out from within java</t>
+  </si>
+  <si>
+    <t>See a list of different members</t>
+  </si>
+  <si>
+    <t>we can test our code</t>
+  </si>
+  <si>
+    <t>list of fake members is created</t>
+  </si>
+  <si>
+    <t>jonas</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store my information </t>
+  </si>
+  <si>
+    <t>the computer remembers me and my membership statue</t>
+  </si>
+  <si>
+    <t>Store information about users in database</t>
+  </si>
+  <si>
+    <t>reserve a parking spot</t>
+  </si>
+  <si>
+    <t>parking is quicker</t>
+  </si>
+  <si>
+    <t>User can select and reserve spot in the program</t>
+  </si>
+  <si>
+    <t>VIneel</t>
+  </si>
+  <si>
+    <t>stakeholder</t>
+  </si>
+  <si>
+    <t>be able to choose the size of the garage</t>
+  </si>
+  <si>
+    <t>the program is more marketable</t>
+  </si>
+  <si>
+    <t>The garage can be any size (any number of spots per level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
   </si>
   <si>
     <t>Sprint Tracker</t>
@@ -381,6 +510,12 @@
     <t>looking into databases :)</t>
   </si>
   <si>
+    <t xml:space="preserve">Looking into releveant data we will need, and anything else that can be turned into variables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic data we need to know about cilents. </t>
+  </si>
+  <si>
     <t>invite schilling to github</t>
   </si>
 </sst>
@@ -393,7 +528,7 @@
     <numFmt numFmtId="165" formatCode="d/mmm/yy"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -440,10 +575,6 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -665,7 +796,7 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -674,13 +805,13 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -707,37 +838,37 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -756,17 +887,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,11 +994,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1717798844"/>
-        <c:axId val="775953996"/>
+        <c:axId val="2104650311"/>
+        <c:axId val="1507603224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1717798844"/>
+        <c:axId val="2104650311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,10 +1050,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="775953996"/>
+        <c:crossAx val="1507603224"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="775953996"/>
+        <c:axId val="1507603224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +1065,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1717798844"/>
+        <c:crossAx val="2104650311"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1044,11 +1175,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1545997949"/>
-        <c:axId val="1579354710"/>
+        <c:axId val="1644197771"/>
+        <c:axId val="250649507"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1545997949"/>
+        <c:axId val="1644197771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,10 +1231,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579354710"/>
+        <c:crossAx val="250649507"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579354710"/>
+        <c:axId val="250649507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1309,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545997949"/>
+        <c:crossAx val="1644197771"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1280,11 +1411,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="703632229"/>
-        <c:axId val="224537205"/>
+        <c:axId val="1308373776"/>
+        <c:axId val="1379940218"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="703632229"/>
+        <c:axId val="1308373776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,10 +1467,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224537205"/>
+        <c:crossAx val="1379940218"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224537205"/>
+        <c:axId val="1379940218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703632229"/>
+        <c:crossAx val="1308373776"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3305,7 +3436,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="60" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3453,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3342,7 +3482,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="60" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3639,7 @@
       <c r="G8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="26" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="7"/>
@@ -3532,7 +3672,7 @@
       <c r="G9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="26" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="7"/>
@@ -3565,11 +3705,13 @@
       <c r="G10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="26" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -3598,16 +3740,16 @@
       <c r="G11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="22">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -3631,11 +3773,13 @@
       <c r="G12" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="26" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -3664,16 +3808,18 @@
       <c r="G13" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="22">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -3689,19 +3835,21 @@
         <v>53</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3714,165 +3862,290 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="38"/>
+      <c r="B15" s="37">
+        <v>8.0</v>
+      </c>
       <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="30"/>
+      <c r="D15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="22">
+        <v>5.0</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="38"/>
+      <c r="B16" s="37">
+        <v>9.0</v>
+      </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="N16" s="22">
+        <v>4.0</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="38"/>
+      <c r="B17" s="37">
+        <v>10.0</v>
+      </c>
       <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="22">
+        <v>2.0</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="30"/>
+      <c r="B18" s="37">
+        <v>11.0</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="22">
+        <v>3.0</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="38"/>
+      <c r="B19" s="37">
+        <v>12.0</v>
+      </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="30"/>
+      <c r="D19" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="N19" s="22">
+        <v>1.0</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="38"/>
+      <c r="B20" s="37">
+        <v>13.0</v>
+      </c>
       <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="30"/>
+      <c r="D20" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="22">
+        <v>9.0</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="38"/>
+      <c r="B21" s="37">
+        <v>14.0</v>
+      </c>
       <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="30"/>
+      <c r="D21" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="N21" s="22">
+        <v>10.0</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="38"/>
+      <c r="B22" s="37">
+        <v>15.0</v>
+      </c>
       <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="30"/>
+      <c r="D22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="N22" s="22">
+        <v>2.0</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="38"/>
+      <c r="B23" s="37">
+        <v>16.0</v>
+      </c>
       <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="30"/>
+      <c r="D23" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3885,13 +4158,25 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="38"/>
+      <c r="B24" s="37">
+        <v>17.0</v>
+      </c>
       <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="30"/>
+      <c r="D24" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -3904,26 +4189,42 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="38"/>
+      <c r="B25" s="37">
+        <v>18.0</v>
+      </c>
       <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="30"/>
+      <c r="D25" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="22">
+        <v>5.0</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="38"/>
+      <c r="B26" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="48"/>
@@ -9805,8 +10106,8 @@
       <c r="H1001" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="$B$7:$R$14"/>
-  <conditionalFormatting sqref="B8:J117">
+  <autoFilter ref="$B$7:$R$26"/>
+  <conditionalFormatting sqref="B8:B117 C8:C17 D8:J117 C19:C117">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
@@ -9845,7 +10146,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="J5" s="49"/>
       <c r="N5" s="49"/>
@@ -9854,7 +10155,7 @@
       <c r="B6" s="3"/>
       <c r="J6" s="49"/>
       <c r="N6" s="49" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="42.0" customHeight="1">
@@ -9862,7 +10163,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>16</v>
@@ -9877,40 +10178,40 @@
         <v>50</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="P7" s="51" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="S7" s="51" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -10759,7 +11060,7 @@
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="56" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G38" s="57">
         <f t="shared" ref="G38:S38" si="3">SUBTOTAL(9,G7:G35)</f>
@@ -10820,7 +11121,7 @@
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="56" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
@@ -10872,7 +11173,7 @@
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="56" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
@@ -11937,7 +12238,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -11951,16 +12252,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>52</v>
@@ -11969,10 +12270,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>20</v>
@@ -13448,7 +13749,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -13465,13 +13766,13 @@
         <v>52</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>20</v>
@@ -14731,13 +15032,13 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
       <c r="B7" s="58" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
@@ -14764,10 +15065,10 @@
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="58" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="K30" s="58" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
@@ -15844,16 +16145,16 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -15861,21 +16162,21 @@
         <v>16</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="B9" s="48" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="63"/>
@@ -17009,7 +17310,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="60" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/CS275 - Group 5 - Project Tracker.xlsx
+++ b/CS275 - Group 5 - Project Tracker.xlsx
@@ -18,7 +18,7 @@
     <sheet state="visible" name="Vineel Tasks" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Backlog!$B$7:$R$26</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Backlog!$B$7:$R$35</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Tracker!$B$7:$S$7</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Impediment!$B$7:$L$7</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Retrospective!$B$7:$H$7</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="193">
   <si>
     <t>See</t>
   </si>
@@ -234,6 +234,9 @@
     <t>When payments are assessed, amount and the name of the client shows on screen</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>Know what data we are going to store about the customer</t>
   </si>
   <si>
@@ -291,6 +294,9 @@
     <t>Be able to store check in time, compare to check out time</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Have membership pricing</t>
   </si>
   <si>
@@ -351,6 +357,9 @@
     <t>jonas</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
@@ -363,6 +372,9 @@
     <t>Store information about users in database</t>
   </si>
   <si>
+    <t>mid</t>
+  </si>
+  <si>
     <t>reserve a parking spot</t>
   </si>
   <si>
@@ -387,7 +399,85 @@
     <t>The garage can be any size (any number of spots per level)</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+    <t>Link my gui to the database</t>
+  </si>
+  <si>
+    <t>Things entered to the GUI save to the database</t>
+  </si>
+  <si>
+    <t>Person can enter their name and save their information in the database</t>
+  </si>
+  <si>
+    <t>Dylan/Nikolai/Tristen</t>
+  </si>
+  <si>
+    <t>Pay extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My car and items are insured </t>
+  </si>
+  <si>
+    <t>Pay extra money to buy insurance</t>
+  </si>
+  <si>
+    <t>Get handicap parking</t>
+  </si>
+  <si>
+    <t>I do not have to walk too far on my handicap</t>
+  </si>
+  <si>
+    <t>Allow handicap parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer </t>
+  </si>
+  <si>
+    <t>see what cars haven't paid their membership</t>
+  </si>
+  <si>
+    <t>I can deny them access to the garage</t>
+  </si>
+  <si>
+    <t>code checks if user is up to date on bills</t>
+  </si>
+  <si>
+    <t>Go to a vending machine</t>
+  </si>
+  <si>
+    <t>I can eat</t>
+  </si>
+  <si>
+    <t>Add in a popup menu that offers snacks</t>
+  </si>
+  <si>
+    <t>consistently have my garage cleaned</t>
+  </si>
+  <si>
+    <t>Have a somewhat clean garage</t>
+  </si>
+  <si>
+    <t>Garage sends a message and pays a cleaning company every so often to clean</t>
+  </si>
+  <si>
+    <t>Create a client class</t>
+  </si>
+  <si>
+    <t>We can store all of the necessary information under the proper variable names</t>
+  </si>
+  <si>
+    <t>we have a class created with proper variables instantiated</t>
+  </si>
+  <si>
+    <t>Create a garage class</t>
+  </si>
+  <si>
+    <t>keep track of flow</t>
+  </si>
+  <si>
+    <t>Figure out what needs to be in garage class</t>
+  </si>
+  <si>
+    <t>Create organizating</t>
   </si>
   <si>
     <t>Sprint Tracker</t>
@@ -729,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -862,8 +952,14 @@
     <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -890,10 +986,10 @@
     <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="11" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -994,11 +1090,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2104650311"/>
-        <c:axId val="1507603224"/>
+        <c:axId val="1890807051"/>
+        <c:axId val="1116349350"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104650311"/>
+        <c:axId val="1890807051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,10 +1146,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1507603224"/>
+        <c:crossAx val="1116349350"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1507603224"/>
+        <c:axId val="1116349350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1161,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2104650311"/>
+        <c:crossAx val="1890807051"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1175,11 +1271,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1644197771"/>
-        <c:axId val="250649507"/>
+        <c:axId val="125187848"/>
+        <c:axId val="1586510035"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1644197771"/>
+        <c:axId val="125187848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,10 +1327,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250649507"/>
+        <c:crossAx val="1586510035"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250649507"/>
+        <c:axId val="1586510035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1405,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644197771"/>
+        <c:crossAx val="125187848"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1411,11 +1507,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1308373776"/>
-        <c:axId val="1379940218"/>
+        <c:axId val="1145462566"/>
+        <c:axId val="763879272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1308373776"/>
+        <c:axId val="1145462566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,10 +1563,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379940218"/>
+        <c:crossAx val="763879272"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1379940218"/>
+        <c:axId val="763879272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1641,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1308373776"/>
+        <c:crossAx val="1145462566"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3435,8 +3531,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>159</v>
+      <c r="A1" s="48" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3455,11 +3551,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>161</v>
+      <c r="A1" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3481,8 +3577,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>162</v>
+      <c r="A1" s="48" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3839,9 @@
       <c r="H11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -3765,13 +3863,13 @@
         <v>53</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>34</v>
@@ -3800,20 +3898,20 @@
         <v>53</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3835,13 +3933,13 @@
         <v>53</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>28</v>
@@ -3870,13 +3968,13 @@
         <v>53</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>38</v>
@@ -3887,7 +3985,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="22">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -3903,13 +4001,13 @@
         <v>53</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>36</v>
@@ -3936,18 +4034,20 @@
         <v>53</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -3968,19 +4068,21 @@
         <v>53</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -4001,20 +4103,20 @@
         <v>53</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -4033,19 +4135,19 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -4066,19 +4168,19 @@
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -4099,21 +4201,23 @@
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -4132,21 +4236,23 @@
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -4163,21 +4269,23 @@
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H24" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -4194,27 +4302,29 @@
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="22">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -4222,15 +4332,25 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="37" t="s">
-        <v>119</v>
+      <c r="B26" s="37">
+        <v>19.0</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="30"/>
+      <c r="D26" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>126</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -4243,14 +4363,28 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="38"/>
+      <c r="B27" s="37">
+        <v>20.0</v>
+      </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="7"/>
+      <c r="D27" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -4262,46 +4396,165 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="48">
+        <v>21.0</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
+      <c r="B30" s="48">
+        <v>23.0</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
+      <c r="B31" s="48">
+        <v>24.0</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
+      <c r="B32" s="48">
+        <v>25.0</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
+      <c r="B33" s="48">
+        <v>26.0</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
+      <c r="B34" s="48">
+        <v>27.0</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="E35" s="34"/>
@@ -10093,21 +10346,9 @@
       <c r="G999" s="34"/>
       <c r="H999" s="33"/>
     </row>
-    <row r="1000" ht="12.75" customHeight="1">
-      <c r="E1000" s="34"/>
-      <c r="F1000" s="34"/>
-      <c r="G1000" s="34"/>
-      <c r="H1000" s="33"/>
-    </row>
-    <row r="1001" ht="12.75" customHeight="1">
-      <c r="E1001" s="34"/>
-      <c r="F1001" s="34"/>
-      <c r="G1001" s="34"/>
-      <c r="H1001" s="33"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$B$7:$R$26"/>
-  <conditionalFormatting sqref="B8:B117 C8:C17 D8:J117 C19:C117">
+  <autoFilter ref="$B$7:$R$35"/>
+  <conditionalFormatting sqref="B8:B115 C8:C17 D8:J115 C19:C115">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
@@ -10146,16 +10387,16 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="49"/>
-      <c r="N5" s="49"/>
+        <v>150</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="N5" s="51"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="B6" s="3"/>
-      <c r="J6" s="49"/>
-      <c r="N6" s="49" t="s">
-        <v>121</v>
+      <c r="J6" s="51"/>
+      <c r="N6" s="51" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" ht="42.0" customHeight="1">
@@ -10163,7 +10404,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>16</v>
@@ -10178,40 +10419,40 @@
         <v>50</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q7" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="S7" s="51" t="s">
-        <v>134</v>
+        <v>154</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -10225,11 +10466,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="52">
+      <c r="H8" s="54">
         <f t="shared" ref="H8:H36" si="1">SUM(J8:S8)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="54">
         <f t="shared" ref="I8:I36" si="2">G8-H8</f>
         <v>-2</v>
       </c>
@@ -10259,11 +10500,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="52">
+      <c r="H9" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="54">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
@@ -10291,11 +10532,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52">
+      <c r="H10" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="54">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
@@ -10329,11 +10570,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52">
+      <c r="H11" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="54">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
@@ -10365,11 +10606,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52">
+      <c r="H12" s="54">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="54">
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
@@ -10415,11 +10656,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52">
+      <c r="H13" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="54">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
@@ -10443,11 +10684,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52">
+      <c r="H14" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10469,11 +10710,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52">
+      <c r="H15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10495,11 +10736,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52">
+      <c r="H16" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10521,11 +10762,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52">
+      <c r="H17" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10547,11 +10788,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52">
+      <c r="H18" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10573,11 +10814,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52">
+      <c r="H19" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10599,11 +10840,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52">
+      <c r="H20" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10625,11 +10866,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52">
+      <c r="H21" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10651,11 +10892,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52">
+      <c r="H22" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10677,11 +10918,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52">
+      <c r="H23" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10703,11 +10944,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52">
+      <c r="H24" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10729,11 +10970,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52">
+      <c r="H25" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10755,11 +10996,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52">
+      <c r="H26" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10781,11 +11022,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52">
+      <c r="H27" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10807,11 +11048,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52">
+      <c r="H28" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10833,11 +11074,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52">
+      <c r="H29" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10859,11 +11100,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52">
+      <c r="H30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10885,11 +11126,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52">
+      <c r="H31" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10911,11 +11152,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52">
+      <c r="H32" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10937,11 +11178,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52">
+      <c r="H33" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10963,11 +11204,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52">
+      <c r="H34" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10989,11 +11230,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52">
+      <c r="H35" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11015,11 +11256,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52">
+      <c r="H36" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11035,209 +11276,209 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="57">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="59">
         <f t="shared" ref="G38:S38" si="3">SUBTOTAL(9,G7:G35)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="59">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="59">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="59">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="59">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L38" s="57">
+      <c r="L38" s="59">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="59">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="59">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="59">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="59">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="59">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="59">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S38" s="57">
+      <c r="S38" s="59">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59">
         <f>G38-J38</f>
         <v>-4</v>
       </c>
-      <c r="K39" s="57">
+      <c r="K39" s="59">
         <f t="shared" ref="K39:S39" si="4">J39-K38</f>
         <v>-8</v>
       </c>
-      <c r="L39" s="57">
+      <c r="L39" s="59">
         <f t="shared" si="4"/>
         <v>-11</v>
       </c>
-      <c r="M39" s="57">
+      <c r="M39" s="59">
         <f t="shared" si="4"/>
         <v>-14</v>
       </c>
-      <c r="N39" s="57">
+      <c r="N39" s="59">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="O39" s="57">
+      <c r="O39" s="59">
         <f t="shared" si="4"/>
         <v>-18</v>
       </c>
-      <c r="P39" s="57">
+      <c r="P39" s="59">
         <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="Q39" s="57">
+      <c r="Q39" s="59">
         <f t="shared" si="4"/>
         <v>-22</v>
       </c>
-      <c r="R39" s="57">
+      <c r="R39" s="59">
         <f t="shared" si="4"/>
         <v>-23</v>
       </c>
-      <c r="S39" s="57">
+      <c r="S39" s="59">
         <f t="shared" si="4"/>
         <v>-25</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59">
         <f>J38</f>
         <v>4</v>
       </c>
-      <c r="K40" s="57">
+      <c r="K40" s="59">
         <f t="shared" ref="K40:S40" si="5">J40+K38</f>
         <v>8</v>
       </c>
-      <c r="L40" s="57">
+      <c r="L40" s="59">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="M40" s="57">
+      <c r="M40" s="59">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="N40" s="57">
+      <c r="N40" s="59">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="O40" s="57">
+      <c r="O40" s="59">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="P40" s="57">
+      <c r="P40" s="59">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="Q40" s="57">
+      <c r="Q40" s="59">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="R40" s="57">
+      <c r="R40" s="59">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="S40" s="57">
+      <c r="S40" s="59">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
     </row>
     <row r="42" ht="12.75" customHeight="1"/>
     <row r="43" ht="12.75" customHeight="1"/>
@@ -12238,7 +12479,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -12252,16 +12493,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>52</v>
@@ -12270,10 +12511,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>20</v>
@@ -13749,7 +13990,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -13766,13 +14007,13 @@
         <v>52</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>20</v>
@@ -15032,13 +15273,13 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="58" t="s">
-        <v>149</v>
+      <c r="B7" s="60" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
@@ -15064,11 +15305,11 @@
     <row r="28" ht="12.75" customHeight="1"/>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="58" t="s">
-        <v>151</v>
+      <c r="B30" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
@@ -16060,58 +16301,58 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="60">
+      <c r="A2" s="48">
         <v>1.0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="48" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="60">
+      <c r="A3" s="48">
         <v>2.0</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="60">
+      <c r="A4" s="48">
         <v>3.0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60">
+      <c r="A5" s="48">
         <v>4.0</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="60">
+      <c r="A6" s="48">
         <v>5.0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="60">
+      <c r="A7" s="48">
         <v>6.0</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16145,137 +16386,137 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="61" t="s">
+      <c r="C8" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="61" t="s">
-        <v>155</v>
+      <c r="F8" s="62" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="B26" s="30"/>
@@ -17309,8 +17550,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>158</v>
+      <c r="A1" s="48" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
